--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value525.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value525.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9464466560746704</v>
+        <v>1.288358211517334</v>
       </c>
       <c r="B1">
-        <v>1.388219737249262</v>
+        <v>2.393049955368042</v>
       </c>
       <c r="C1">
-        <v>1.845404527983015</v>
+        <v>3.177851676940918</v>
       </c>
       <c r="D1">
-        <v>2.019066515640007</v>
+        <v>3.453905820846558</v>
       </c>
       <c r="E1">
-        <v>2.353686907988224</v>
+        <v>1.062260150909424</v>
       </c>
     </row>
   </sheetData>
